--- a/Mechanical/HDRM-BOM.xlsx
+++ b/Mechanical/HDRM-BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="66">
   <si>
     <t>S.No</t>
   </si>
@@ -868,7 +868,9 @@
       <c r="J7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="12"/>
+      <c r="K7" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L7" s="12"/>
     </row>
     <row r="8">
@@ -897,7 +899,9 @@
       <c r="J8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="12"/>
+      <c r="K8" s="20" t="s">
+        <v>22</v>
+      </c>
       <c r="L8" s="12"/>
     </row>
     <row r="9">
